--- a/spreadsheets/new/GSE109822.0.xlsx
+++ b/spreadsheets/new/GSE109822.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD5E513-B9D8-7A49-8D68-F1F826746211}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="31920" windowHeight="19760" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,12 @@
     <sheet name="Sequencing_protocol" sheetId="9" r:id="rId9"/>
     <sheet name="Specimen_from_organism" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5778" uniqueCount="2224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5780" uniqueCount="2225">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -6695,13 +6701,16 @@
   </si>
   <si>
     <t>Primary reticular dermis</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6738,6 +6747,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -6784,7 +6801,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6816,9 +6833,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6850,6 +6885,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7025,75 +7078,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="120.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="120.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7272,7 +7322,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -7451,7 +7501,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -7609,7 +7659,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -7788,12 +7838,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -7819,7 +7869,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -7845,7 +7895,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -7871,7 +7921,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>226</v>
       </c>
@@ -7897,7 +7947,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>231</v>
       </c>
@@ -7923,7 +7973,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>236</v>
       </c>
@@ -7949,7 +7999,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>241</v>
       </c>
@@ -7978,7 +8028,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>247</v>
       </c>
@@ -8007,7 +8057,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -8036,7 +8086,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>255</v>
       </c>
@@ -8065,7 +8115,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>259</v>
       </c>
@@ -8094,7 +8144,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>263</v>
       </c>
@@ -8123,7 +8173,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>267</v>
       </c>
@@ -8152,7 +8202,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>271</v>
       </c>
@@ -8181,7 +8231,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>275</v>
       </c>
@@ -8210,7 +8260,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>279</v>
       </c>
@@ -8239,7 +8289,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>283</v>
       </c>
@@ -8268,7 +8318,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>287</v>
       </c>
@@ -8297,7 +8347,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>291</v>
       </c>
@@ -8326,7 +8376,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>295</v>
       </c>
@@ -8355,7 +8405,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>299</v>
       </c>
@@ -8384,7 +8434,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>303</v>
       </c>
@@ -8413,7 +8463,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>307</v>
       </c>
@@ -8442,7 +8492,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>311</v>
       </c>
@@ -8471,7 +8521,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>315</v>
       </c>
@@ -8500,7 +8550,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>319</v>
       </c>
@@ -8529,7 +8579,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>323</v>
       </c>
@@ -8558,7 +8608,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:42">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>327</v>
       </c>
@@ -8587,7 +8637,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:42">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>331</v>
       </c>
@@ -8616,7 +8666,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>335</v>
       </c>
@@ -8645,7 +8695,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:42">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>339</v>
       </c>
@@ -8674,7 +8724,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>343</v>
       </c>
@@ -8703,7 +8753,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -8732,7 +8782,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:42">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>351</v>
       </c>
@@ -8761,7 +8811,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:42">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>355</v>
       </c>
@@ -8790,7 +8840,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>359</v>
       </c>
@@ -8819,7 +8869,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:42">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>363</v>
       </c>
@@ -8848,7 +8898,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:42">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>367</v>
       </c>
@@ -8877,7 +8927,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:42">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>371</v>
       </c>
@@ -8906,7 +8956,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:42">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>375</v>
       </c>
@@ -8935,7 +8985,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:42">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>379</v>
       </c>
@@ -8964,7 +9014,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:42">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>383</v>
       </c>
@@ -8993,7 +9043,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:42">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>387</v>
       </c>
@@ -9022,7 +9072,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:42">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>391</v>
       </c>
@@ -9051,7 +9101,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:42">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>395</v>
       </c>
@@ -9080,7 +9130,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:42">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>399</v>
       </c>
@@ -9109,7 +9159,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="1:42">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>403</v>
       </c>
@@ -9138,7 +9188,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:42">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>407</v>
       </c>
@@ -9167,7 +9217,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:42">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>411</v>
       </c>
@@ -9196,7 +9246,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="55" spans="1:42">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>415</v>
       </c>
@@ -9225,7 +9275,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:42">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>419</v>
       </c>
@@ -9254,7 +9304,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:42">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>423</v>
       </c>
@@ -9283,7 +9333,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:42">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>427</v>
       </c>
@@ -9312,7 +9362,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:42">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>431</v>
       </c>
@@ -9341,7 +9391,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:42">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>435</v>
       </c>
@@ -9370,7 +9420,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:42">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>439</v>
       </c>
@@ -9399,7 +9449,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:42">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>443</v>
       </c>
@@ -9428,7 +9478,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:42">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>447</v>
       </c>
@@ -9457,7 +9507,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:42">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>451</v>
       </c>
@@ -9486,7 +9536,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:42">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>455</v>
       </c>
@@ -9515,7 +9565,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="66" spans="1:42">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>459</v>
       </c>
@@ -9544,7 +9594,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:42">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>463</v>
       </c>
@@ -9573,7 +9623,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:42">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>467</v>
       </c>
@@ -9602,7 +9652,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:42">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>471</v>
       </c>
@@ -9631,7 +9681,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" spans="1:42">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>475</v>
       </c>
@@ -9660,7 +9710,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="71" spans="1:42">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>479</v>
       </c>
@@ -9689,7 +9739,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="72" spans="1:42">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>483</v>
       </c>
@@ -9718,7 +9768,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:42">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>487</v>
       </c>
@@ -9747,7 +9797,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:42">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>491</v>
       </c>
@@ -9776,7 +9826,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="75" spans="1:42">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>495</v>
       </c>
@@ -9805,7 +9855,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:42">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>499</v>
       </c>
@@ -9834,7 +9884,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:42">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>503</v>
       </c>
@@ -9863,7 +9913,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:42">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>507</v>
       </c>
@@ -9892,7 +9942,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="79" spans="1:42">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>511</v>
       </c>
@@ -9921,7 +9971,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="1:42">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>515</v>
       </c>
@@ -9950,7 +10000,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>519</v>
       </c>
@@ -9979,7 +10029,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>523</v>
       </c>
@@ -10008,7 +10058,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>527</v>
       </c>
@@ -10037,7 +10087,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="1:42">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>531</v>
       </c>
@@ -10066,7 +10116,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>535</v>
       </c>
@@ -10095,7 +10145,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="86" spans="1:42">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>539</v>
       </c>
@@ -10124,7 +10174,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>543</v>
       </c>
@@ -10153,7 +10203,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="88" spans="1:42">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>547</v>
       </c>
@@ -10182,7 +10232,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>551</v>
       </c>
@@ -10211,7 +10261,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:42">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>555</v>
       </c>
@@ -10240,7 +10290,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="91" spans="1:42">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>559</v>
       </c>
@@ -10269,7 +10319,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>563</v>
       </c>
@@ -10298,7 +10348,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="93" spans="1:42">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>567</v>
       </c>
@@ -10327,7 +10377,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>571</v>
       </c>
@@ -10356,7 +10406,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="95" spans="1:42">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>575</v>
       </c>
@@ -10385,7 +10435,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>579</v>
       </c>
@@ -10414,7 +10464,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="97" spans="1:42">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>583</v>
       </c>
@@ -10443,7 +10493,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="98" spans="1:42">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>587</v>
       </c>
@@ -10472,7 +10522,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="99" spans="1:42">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>591</v>
       </c>
@@ -10501,7 +10551,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="100" spans="1:42">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>595</v>
       </c>
@@ -10530,7 +10580,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:42">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>599</v>
       </c>
@@ -10559,7 +10609,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:42">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>603</v>
       </c>
@@ -10588,7 +10638,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="103" spans="1:42">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>607</v>
       </c>
@@ -10617,7 +10667,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="104" spans="1:42">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>611</v>
       </c>
@@ -10646,7 +10696,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="105" spans="1:42">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>615</v>
       </c>
@@ -10675,7 +10725,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="106" spans="1:42">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>619</v>
       </c>
@@ -10704,7 +10754,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="107" spans="1:42">
+    <row r="107" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>623</v>
       </c>
@@ -10733,7 +10783,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="108" spans="1:42">
+    <row r="108" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>627</v>
       </c>
@@ -10762,7 +10812,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:42">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>631</v>
       </c>
@@ -10791,7 +10841,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="1:42">
+    <row r="110" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>635</v>
       </c>
@@ -10820,7 +10870,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:42">
+    <row r="111" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>639</v>
       </c>
@@ -10849,7 +10899,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="112" spans="1:42">
+    <row r="112" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>643</v>
       </c>
@@ -10878,7 +10928,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="113" spans="1:42">
+    <row r="113" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>647</v>
       </c>
@@ -10907,7 +10957,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="114" spans="1:42">
+    <row r="114" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>651</v>
       </c>
@@ -10936,7 +10986,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="115" spans="1:42">
+    <row r="115" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>655</v>
       </c>
@@ -10965,7 +11015,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="116" spans="1:42">
+    <row r="116" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>659</v>
       </c>
@@ -10994,7 +11044,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="117" spans="1:42">
+    <row r="117" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>663</v>
       </c>
@@ -11023,7 +11073,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="118" spans="1:42">
+    <row r="118" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>667</v>
       </c>
@@ -11052,7 +11102,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="1:42">
+    <row r="119" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>671</v>
       </c>
@@ -11081,7 +11131,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="120" spans="1:42">
+    <row r="120" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>675</v>
       </c>
@@ -11110,7 +11160,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="121" spans="1:42">
+    <row r="121" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>679</v>
       </c>
@@ -11139,7 +11189,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="122" spans="1:42">
+    <row r="122" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>683</v>
       </c>
@@ -11168,7 +11218,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="123" spans="1:42">
+    <row r="123" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>687</v>
       </c>
@@ -11197,7 +11247,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="124" spans="1:42">
+    <row r="124" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>691</v>
       </c>
@@ -11226,7 +11276,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="125" spans="1:42">
+    <row r="125" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>695</v>
       </c>
@@ -11255,7 +11305,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="126" spans="1:42">
+    <row r="126" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>699</v>
       </c>
@@ -11284,7 +11334,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="127" spans="1:42">
+    <row r="127" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>703</v>
       </c>
@@ -11313,7 +11363,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="128" spans="1:42">
+    <row r="128" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>707</v>
       </c>
@@ -11342,7 +11392,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="129" spans="1:42">
+    <row r="129" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>711</v>
       </c>
@@ -11371,7 +11421,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="130" spans="1:42">
+    <row r="130" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>715</v>
       </c>
@@ -11400,7 +11450,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="131" spans="1:42">
+    <row r="131" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>719</v>
       </c>
@@ -11429,7 +11479,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="132" spans="1:42">
+    <row r="132" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>723</v>
       </c>
@@ -11458,7 +11508,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="133" spans="1:42">
+    <row r="133" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>727</v>
       </c>
@@ -11487,7 +11537,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="1:42">
+    <row r="134" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>731</v>
       </c>
@@ -11516,7 +11566,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="135" spans="1:42">
+    <row r="135" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>735</v>
       </c>
@@ -11545,7 +11595,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="1:42">
+    <row r="136" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>739</v>
       </c>
@@ -11574,7 +11624,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="137" spans="1:42">
+    <row r="137" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>743</v>
       </c>
@@ -11603,7 +11653,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="138" spans="1:42">
+    <row r="138" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>747</v>
       </c>
@@ -11632,7 +11682,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="139" spans="1:42">
+    <row r="139" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>751</v>
       </c>
@@ -11661,7 +11711,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="140" spans="1:42">
+    <row r="140" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>755</v>
       </c>
@@ -11690,7 +11740,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="141" spans="1:42">
+    <row r="141" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>759</v>
       </c>
@@ -11719,7 +11769,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="142" spans="1:42">
+    <row r="142" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>763</v>
       </c>
@@ -11748,7 +11798,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="143" spans="1:42">
+    <row r="143" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>767</v>
       </c>
@@ -11777,7 +11827,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="144" spans="1:42">
+    <row r="144" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>771</v>
       </c>
@@ -11806,7 +11856,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="145" spans="1:42">
+    <row r="145" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>775</v>
       </c>
@@ -11835,7 +11885,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="146" spans="1:42">
+    <row r="146" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>779</v>
       </c>
@@ -11864,7 +11914,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="147" spans="1:42">
+    <row r="147" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>783</v>
       </c>
@@ -11893,7 +11943,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="148" spans="1:42">
+    <row r="148" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>787</v>
       </c>
@@ -11922,7 +11972,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:42">
+    <row r="149" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>791</v>
       </c>
@@ -11951,7 +12001,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:42">
+    <row r="150" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>795</v>
       </c>
@@ -11980,7 +12030,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="151" spans="1:42">
+    <row r="151" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>799</v>
       </c>
@@ -12009,7 +12059,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="152" spans="1:42">
+    <row r="152" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>803</v>
       </c>
@@ -12038,7 +12088,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="153" spans="1:42">
+    <row r="153" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>807</v>
       </c>
@@ -12067,7 +12117,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="154" spans="1:42">
+    <row r="154" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>811</v>
       </c>
@@ -12096,7 +12146,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="155" spans="1:42">
+    <row r="155" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>815</v>
       </c>
@@ -12125,7 +12175,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="156" spans="1:42">
+    <row r="156" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>819</v>
       </c>
@@ -12154,7 +12204,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="157" spans="1:42">
+    <row r="157" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>823</v>
       </c>
@@ -12183,7 +12233,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="158" spans="1:42">
+    <row r="158" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>827</v>
       </c>
@@ -12212,7 +12262,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="159" spans="1:42">
+    <row r="159" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>831</v>
       </c>
@@ -12241,7 +12291,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="160" spans="1:42">
+    <row r="160" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>835</v>
       </c>
@@ -12270,7 +12320,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="161" spans="1:42">
+    <row r="161" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>839</v>
       </c>
@@ -12299,7 +12349,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="162" spans="1:42">
+    <row r="162" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>843</v>
       </c>
@@ -12328,7 +12378,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="163" spans="1:42">
+    <row r="163" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>847</v>
       </c>
@@ -12357,7 +12407,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="164" spans="1:42">
+    <row r="164" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>851</v>
       </c>
@@ -12386,7 +12436,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="165" spans="1:42">
+    <row r="165" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>855</v>
       </c>
@@ -12415,7 +12465,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="166" spans="1:42">
+    <row r="166" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>859</v>
       </c>
@@ -12444,7 +12494,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="1:42">
+    <row r="167" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>863</v>
       </c>
@@ -12473,7 +12523,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="168" spans="1:42">
+    <row r="168" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>867</v>
       </c>
@@ -12502,7 +12552,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="169" spans="1:42">
+    <row r="169" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>871</v>
       </c>
@@ -12531,7 +12581,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="170" spans="1:42">
+    <row r="170" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>875</v>
       </c>
@@ -12560,7 +12610,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="171" spans="1:42">
+    <row r="171" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>879</v>
       </c>
@@ -12589,7 +12639,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="172" spans="1:42">
+    <row r="172" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>883</v>
       </c>
@@ -12618,7 +12668,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="173" spans="1:42">
+    <row r="173" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>887</v>
       </c>
@@ -12647,7 +12697,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="174" spans="1:42">
+    <row r="174" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>891</v>
       </c>
@@ -12676,7 +12726,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="175" spans="1:42">
+    <row r="175" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>895</v>
       </c>
@@ -12705,7 +12755,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="176" spans="1:42">
+    <row r="176" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>899</v>
       </c>
@@ -12734,7 +12784,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="177" spans="1:42">
+    <row r="177" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>903</v>
       </c>
@@ -12763,7 +12813,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="178" spans="1:42">
+    <row r="178" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>907</v>
       </c>
@@ -12792,7 +12842,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="179" spans="1:42">
+    <row r="179" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>911</v>
       </c>
@@ -12821,7 +12871,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="180" spans="1:42">
+    <row r="180" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>915</v>
       </c>
@@ -12850,7 +12900,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="181" spans="1:42">
+    <row r="181" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>919</v>
       </c>
@@ -12879,7 +12929,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="182" spans="1:42">
+    <row r="182" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>923</v>
       </c>
@@ -12908,7 +12958,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="183" spans="1:42">
+    <row r="183" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>927</v>
       </c>
@@ -12937,7 +12987,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="184" spans="1:42">
+    <row r="184" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>931</v>
       </c>
@@ -12966,7 +13016,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="185" spans="1:42">
+    <row r="185" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>935</v>
       </c>
@@ -12995,7 +13045,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="186" spans="1:42">
+    <row r="186" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>939</v>
       </c>
@@ -13024,7 +13074,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="187" spans="1:42">
+    <row r="187" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>943</v>
       </c>
@@ -13053,7 +13103,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="188" spans="1:42">
+    <row r="188" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>947</v>
       </c>
@@ -13082,7 +13132,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="189" spans="1:42">
+    <row r="189" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>951</v>
       </c>
@@ -13111,7 +13161,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="190" spans="1:42">
+    <row r="190" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>955</v>
       </c>
@@ -13140,7 +13190,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="191" spans="1:42">
+    <row r="191" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>959</v>
       </c>
@@ -13169,7 +13219,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="192" spans="1:42">
+    <row r="192" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>963</v>
       </c>
@@ -13198,7 +13248,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="193" spans="1:42">
+    <row r="193" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>967</v>
       </c>
@@ -13227,7 +13277,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="194" spans="1:42">
+    <row r="194" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>971</v>
       </c>
@@ -13256,7 +13306,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="195" spans="1:42">
+    <row r="195" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>975</v>
       </c>
@@ -13291,76 +13341,73 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:BH12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -13542,7 +13589,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -13724,7 +13771,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -13885,7 +13932,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -14067,12 +14114,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>214</v>
       </c>
@@ -14086,7 +14133,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>220</v>
       </c>
@@ -14100,7 +14147,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>225</v>
       </c>
@@ -14114,7 +14161,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>230</v>
       </c>
@@ -14128,7 +14175,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>235</v>
       </c>
@@ -14142,7 +14189,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>240</v>
       </c>
@@ -14156,7 +14203,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>246</v>
       </c>
@@ -14173,31 +14220,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="64.7109375" customWidth="1"/>
-    <col min="3" max="3" width="603.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="67.7109375" customWidth="1"/>
-    <col min="8" max="8" width="58.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="90.7109375" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" customWidth="1"/>
-    <col min="12" max="12" width="48.7109375" customWidth="1"/>
-    <col min="13" max="13" width="44.7109375" customWidth="1"/>
-    <col min="14" max="14" width="111.7109375" customWidth="1"/>
-    <col min="15" max="15" width="91.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" customWidth="1"/>
+    <col min="3" max="3" width="603.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="67.6640625" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="90.6640625" customWidth="1"/>
+    <col min="11" max="11" width="46.6640625" customWidth="1"/>
+    <col min="12" max="12" width="48.6640625" customWidth="1"/>
+    <col min="13" max="13" width="44.6640625" customWidth="1"/>
+    <col min="14" max="14" width="111.6640625" customWidth="1"/>
+    <col min="15" max="15" width="91.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -14244,7 +14291,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -14291,7 +14338,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -14332,7 +14379,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -14379,12 +14426,12 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>215</v>
       </c>
@@ -14398,93 +14445,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BY9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1028</v>
       </c>
@@ -14717,7 +14762,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -14950,7 +14995,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -15165,7 +15210,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1132</v>
       </c>
@@ -15398,12 +15443,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1193</v>
       </c>
@@ -15414,7 +15459,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1195</v>
       </c>
@@ -15425,7 +15470,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1196</v>
       </c>
@@ -15436,7 +15481,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1197</v>
       </c>
@@ -15453,28 +15498,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="67.7109375" customWidth="1"/>
-    <col min="8" max="8" width="58.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="141.7109375" customWidth="1"/>
-    <col min="11" max="11" width="62.7109375" customWidth="1"/>
-    <col min="12" max="12" width="62.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="67.6640625" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" customWidth="1"/>
+    <col min="9" max="10" width="141.6640625" customWidth="1"/>
+    <col min="11" max="12" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -15512,7 +15555,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -15550,7 +15593,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -15582,7 +15625,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>190</v>
       </c>
@@ -15620,7 +15663,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
@@ -15631,67 +15674,65 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="356.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="356.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1223</v>
       </c>
@@ -15846,7 +15887,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -16001,7 +16042,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -16150,7 +16191,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1301</v>
       </c>
@@ -16305,12 +16346,12 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1352</v>
       </c>
@@ -16327,25 +16368,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="1253.7109375" customWidth="1"/>
-    <col min="4" max="4" width="262.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="1253.6640625" customWidth="1"/>
+    <col min="4" max="4" width="262.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1355</v>
       </c>
@@ -16374,7 +16414,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1364</v>
       </c>
@@ -16403,7 +16443,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1373</v>
       </c>
@@ -16432,7 +16472,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1382</v>
       </c>
@@ -16461,12 +16501,12 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1391</v>
       </c>
@@ -16492,28 +16532,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1397</v>
       </c>
@@ -16551,7 +16591,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1409</v>
       </c>
@@ -16589,7 +16629,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1419</v>
       </c>
@@ -16627,7 +16667,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1430</v>
       </c>
@@ -16665,12 +16705,12 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1442</v>
       </c>
@@ -16690,12 +16730,12 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1449</v>
       </c>
@@ -16706,46 +16746,44 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD385"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1450</v>
       </c>
@@ -16837,7 +16875,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1462</v>
       </c>
@@ -16929,7 +16967,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1471</v>
       </c>
@@ -17009,7 +17047,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1481</v>
       </c>
@@ -17101,12 +17139,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1493</v>
       </c>
@@ -17129,7 +17167,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1498</v>
       </c>
@@ -17152,7 +17190,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1500</v>
       </c>
@@ -17175,7 +17213,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1502</v>
       </c>
@@ -17198,7 +17236,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1503</v>
       </c>
@@ -17221,7 +17259,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1505</v>
       </c>
@@ -17244,7 +17282,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1506</v>
       </c>
@@ -17267,7 +17305,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1508</v>
       </c>
@@ -17290,7 +17328,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1509</v>
       </c>
@@ -17313,7 +17351,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1511</v>
       </c>
@@ -17336,7 +17374,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1512</v>
       </c>
@@ -17359,7 +17397,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1514</v>
       </c>
@@ -17382,7 +17420,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1515</v>
       </c>
@@ -17405,7 +17443,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1518</v>
       </c>
@@ -17428,7 +17466,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1519</v>
       </c>
@@ -17451,7 +17489,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1521</v>
       </c>
@@ -17474,7 +17512,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1522</v>
       </c>
@@ -17497,7 +17535,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1524</v>
       </c>
@@ -17520,7 +17558,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1525</v>
       </c>
@@ -17543,7 +17581,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1527</v>
       </c>
@@ -17566,7 +17604,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1528</v>
       </c>
@@ -17589,7 +17627,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1530</v>
       </c>
@@ -17612,7 +17650,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1531</v>
       </c>
@@ -17635,7 +17673,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1533</v>
       </c>
@@ -17658,7 +17696,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1534</v>
       </c>
@@ -17681,7 +17719,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1536</v>
       </c>
@@ -17704,7 +17742,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1537</v>
       </c>
@@ -17727,7 +17765,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1539</v>
       </c>
@@ -17750,7 +17788,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1540</v>
       </c>
@@ -17773,7 +17811,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1542</v>
       </c>
@@ -17796,7 +17834,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1543</v>
       </c>
@@ -17819,7 +17857,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1545</v>
       </c>
@@ -17842,7 +17880,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1546</v>
       </c>
@@ -17865,7 +17903,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1548</v>
       </c>
@@ -17888,7 +17926,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1549</v>
       </c>
@@ -17911,7 +17949,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1551</v>
       </c>
@@ -17934,7 +17972,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1552</v>
       </c>
@@ -17957,7 +17995,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1554</v>
       </c>
@@ -17980,7 +18018,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1555</v>
       </c>
@@ -18003,7 +18041,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1557</v>
       </c>
@@ -18026,7 +18064,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1558</v>
       </c>
@@ -18049,7 +18087,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1560</v>
       </c>
@@ -18072,7 +18110,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1561</v>
       </c>
@@ -18095,7 +18133,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1563</v>
       </c>
@@ -18118,7 +18156,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1564</v>
       </c>
@@ -18141,7 +18179,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1566</v>
       </c>
@@ -18164,7 +18202,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1567</v>
       </c>
@@ -18187,7 +18225,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1569</v>
       </c>
@@ -18210,7 +18248,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1570</v>
       </c>
@@ -18233,7 +18271,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1572</v>
       </c>
@@ -18256,7 +18294,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1573</v>
       </c>
@@ -18279,7 +18317,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1575</v>
       </c>
@@ -18302,7 +18340,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1576</v>
       </c>
@@ -18325,7 +18363,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1578</v>
       </c>
@@ -18348,7 +18386,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1579</v>
       </c>
@@ -18371,7 +18409,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1581</v>
       </c>
@@ -18394,7 +18432,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1582</v>
       </c>
@@ -18417,7 +18455,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1584</v>
       </c>
@@ -18440,7 +18478,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1585</v>
       </c>
@@ -18463,7 +18501,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1587</v>
       </c>
@@ -18486,7 +18524,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1588</v>
       </c>
@@ -18509,7 +18547,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1590</v>
       </c>
@@ -18532,7 +18570,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1591</v>
       </c>
@@ -18555,7 +18593,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1593</v>
       </c>
@@ -18578,7 +18616,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1594</v>
       </c>
@@ -18601,7 +18639,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1596</v>
       </c>
@@ -18624,7 +18662,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1597</v>
       </c>
@@ -18647,7 +18685,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1599</v>
       </c>
@@ -18670,7 +18708,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1600</v>
       </c>
@@ -18693,7 +18731,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1602</v>
       </c>
@@ -18716,7 +18754,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1603</v>
       </c>
@@ -18739,7 +18777,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1605</v>
       </c>
@@ -18762,7 +18800,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1606</v>
       </c>
@@ -18785,7 +18823,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1608</v>
       </c>
@@ -18808,7 +18846,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1609</v>
       </c>
@@ -18831,7 +18869,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1611</v>
       </c>
@@ -18854,7 +18892,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1612</v>
       </c>
@@ -18877,7 +18915,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1614</v>
       </c>
@@ -18900,7 +18938,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1615</v>
       </c>
@@ -18923,7 +18961,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1617</v>
       </c>
@@ -18946,7 +18984,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1618</v>
       </c>
@@ -18969,7 +19007,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1620</v>
       </c>
@@ -18992,7 +19030,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1621</v>
       </c>
@@ -19015,7 +19053,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1623</v>
       </c>
@@ -19038,7 +19076,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1624</v>
       </c>
@@ -19061,7 +19099,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1626</v>
       </c>
@@ -19084,7 +19122,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1627</v>
       </c>
@@ -19107,7 +19145,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1629</v>
       </c>
@@ -19130,7 +19168,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1630</v>
       </c>
@@ -19153,7 +19191,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1632</v>
       </c>
@@ -19176,7 +19214,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1633</v>
       </c>
@@ -19199,7 +19237,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1635</v>
       </c>
@@ -19222,7 +19260,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1636</v>
       </c>
@@ -19245,7 +19283,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1638</v>
       </c>
@@ -19268,7 +19306,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1639</v>
       </c>
@@ -19291,7 +19329,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1641</v>
       </c>
@@ -19314,7 +19352,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1642</v>
       </c>
@@ -19337,7 +19375,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1644</v>
       </c>
@@ -19360,7 +19398,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1645</v>
       </c>
@@ -19383,7 +19421,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1647</v>
       </c>
@@ -19406,7 +19444,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1648</v>
       </c>
@@ -19429,7 +19467,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1650</v>
       </c>
@@ -19452,7 +19490,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1651</v>
       </c>
@@ -19475,7 +19513,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1653</v>
       </c>
@@ -19498,7 +19536,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1654</v>
       </c>
@@ -19521,7 +19559,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1656</v>
       </c>
@@ -19544,7 +19582,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1657</v>
       </c>
@@ -19567,7 +19605,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1659</v>
       </c>
@@ -19590,7 +19628,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1660</v>
       </c>
@@ -19613,7 +19651,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1662</v>
       </c>
@@ -19636,7 +19674,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1663</v>
       </c>
@@ -19659,7 +19697,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1665</v>
       </c>
@@ -19682,7 +19720,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1666</v>
       </c>
@@ -19705,7 +19743,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1668</v>
       </c>
@@ -19728,7 +19766,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1669</v>
       </c>
@@ -19751,7 +19789,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1671</v>
       </c>
@@ -19774,7 +19812,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1672</v>
       </c>
@@ -19797,7 +19835,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1674</v>
       </c>
@@ -19820,7 +19858,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1675</v>
       </c>
@@ -19843,7 +19881,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1677</v>
       </c>
@@ -19866,7 +19904,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1678</v>
       </c>
@@ -19889,7 +19927,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1680</v>
       </c>
@@ -19912,7 +19950,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1681</v>
       </c>
@@ -19935,7 +19973,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1683</v>
       </c>
@@ -19958,7 +19996,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1684</v>
       </c>
@@ -19981,7 +20019,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1686</v>
       </c>
@@ -20004,7 +20042,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1687</v>
       </c>
@@ -20027,7 +20065,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1689</v>
       </c>
@@ -20050,7 +20088,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1690</v>
       </c>
@@ -20073,7 +20111,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1692</v>
       </c>
@@ -20096,7 +20134,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1693</v>
       </c>
@@ -20119,7 +20157,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1695</v>
       </c>
@@ -20142,7 +20180,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1696</v>
       </c>
@@ -20165,7 +20203,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1698</v>
       </c>
@@ -20188,7 +20226,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1699</v>
       </c>
@@ -20211,7 +20249,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1701</v>
       </c>
@@ -20234,7 +20272,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1702</v>
       </c>
@@ -20257,7 +20295,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1704</v>
       </c>
@@ -20280,7 +20318,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1705</v>
       </c>
@@ -20303,7 +20341,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1707</v>
       </c>
@@ -20326,7 +20364,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1708</v>
       </c>
@@ -20349,7 +20387,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1710</v>
       </c>
@@ -20372,7 +20410,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1711</v>
       </c>
@@ -20395,7 +20433,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1713</v>
       </c>
@@ -20418,7 +20456,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1714</v>
       </c>
@@ -20441,7 +20479,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1716</v>
       </c>
@@ -20464,7 +20502,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1717</v>
       </c>
@@ -20487,7 +20525,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1719</v>
       </c>
@@ -20510,7 +20548,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1720</v>
       </c>
@@ -20533,7 +20571,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1722</v>
       </c>
@@ -20556,7 +20594,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1723</v>
       </c>
@@ -20579,7 +20617,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1725</v>
       </c>
@@ -20602,7 +20640,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1726</v>
       </c>
@@ -20625,7 +20663,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1728</v>
       </c>
@@ -20648,7 +20686,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1729</v>
       </c>
@@ -20671,7 +20709,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1731</v>
       </c>
@@ -20694,7 +20732,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1732</v>
       </c>
@@ -20717,7 +20755,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1734</v>
       </c>
@@ -20740,7 +20778,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1735</v>
       </c>
@@ -20763,7 +20801,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1737</v>
       </c>
@@ -20786,7 +20824,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1738</v>
       </c>
@@ -20809,7 +20847,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1740</v>
       </c>
@@ -20832,7 +20870,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1741</v>
       </c>
@@ -20855,7 +20893,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1743</v>
       </c>
@@ -20878,7 +20916,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1744</v>
       </c>
@@ -20901,7 +20939,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1746</v>
       </c>
@@ -20924,7 +20962,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1747</v>
       </c>
@@ -20947,7 +20985,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1749</v>
       </c>
@@ -20970,7 +21008,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1750</v>
       </c>
@@ -20993,7 +21031,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1752</v>
       </c>
@@ -21016,7 +21054,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1753</v>
       </c>
@@ -21039,7 +21077,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1755</v>
       </c>
@@ -21062,7 +21100,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1756</v>
       </c>
@@ -21085,7 +21123,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1758</v>
       </c>
@@ -21108,7 +21146,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1759</v>
       </c>
@@ -21131,7 +21169,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1761</v>
       </c>
@@ -21154,7 +21192,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1762</v>
       </c>
@@ -21177,7 +21215,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1764</v>
       </c>
@@ -21200,7 +21238,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1765</v>
       </c>
@@ -21223,7 +21261,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1767</v>
       </c>
@@ -21246,7 +21284,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1768</v>
       </c>
@@ -21269,7 +21307,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1770</v>
       </c>
@@ -21292,7 +21330,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1771</v>
       </c>
@@ -21315,7 +21353,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1773</v>
       </c>
@@ -21338,7 +21376,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1774</v>
       </c>
@@ -21361,7 +21399,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1776</v>
       </c>
@@ -21384,7 +21422,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1777</v>
       </c>
@@ -21407,7 +21445,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1779</v>
       </c>
@@ -21430,7 +21468,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1780</v>
       </c>
@@ -21453,7 +21491,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1782</v>
       </c>
@@ -21476,7 +21514,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1783</v>
       </c>
@@ -21499,7 +21537,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1785</v>
       </c>
@@ -21522,7 +21560,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1786</v>
       </c>
@@ -21545,7 +21583,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1788</v>
       </c>
@@ -21568,7 +21606,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1789</v>
       </c>
@@ -21591,7 +21629,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1791</v>
       </c>
@@ -21614,7 +21652,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1792</v>
       </c>
@@ -21637,7 +21675,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1794</v>
       </c>
@@ -21660,7 +21698,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1795</v>
       </c>
@@ -21683,7 +21721,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1797</v>
       </c>
@@ -21706,7 +21744,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1798</v>
       </c>
@@ -21729,7 +21767,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1800</v>
       </c>
@@ -21752,7 +21790,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1801</v>
       </c>
@@ -21775,7 +21813,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1803</v>
       </c>
@@ -21798,7 +21836,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1804</v>
       </c>
@@ -21821,7 +21859,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1806</v>
       </c>
@@ -21844,7 +21882,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1807</v>
       </c>
@@ -21867,7 +21905,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1809</v>
       </c>
@@ -21890,7 +21928,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1810</v>
       </c>
@@ -21913,7 +21951,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1812</v>
       </c>
@@ -21936,7 +21974,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1813</v>
       </c>
@@ -21959,7 +21997,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1815</v>
       </c>
@@ -21982,7 +22020,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1816</v>
       </c>
@@ -22005,7 +22043,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1818</v>
       </c>
@@ -22028,7 +22066,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1819</v>
       </c>
@@ -22051,7 +22089,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1821</v>
       </c>
@@ -22074,7 +22112,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1822</v>
       </c>
@@ -22097,7 +22135,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1824</v>
       </c>
@@ -22120,7 +22158,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1825</v>
       </c>
@@ -22143,7 +22181,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1827</v>
       </c>
@@ -22166,7 +22204,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1828</v>
       </c>
@@ -22189,7 +22227,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1830</v>
       </c>
@@ -22212,7 +22250,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1831</v>
       </c>
@@ -22235,7 +22273,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1833</v>
       </c>
@@ -22258,7 +22296,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1834</v>
       </c>
@@ -22281,7 +22319,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1836</v>
       </c>
@@ -22304,7 +22342,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1837</v>
       </c>
@@ -22327,7 +22365,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1839</v>
       </c>
@@ -22350,7 +22388,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1840</v>
       </c>
@@ -22373,7 +22411,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1842</v>
       </c>
@@ -22396,7 +22434,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1843</v>
       </c>
@@ -22419,7 +22457,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1845</v>
       </c>
@@ -22442,7 +22480,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1846</v>
       </c>
@@ -22465,7 +22503,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1848</v>
       </c>
@@ -22488,7 +22526,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1849</v>
       </c>
@@ -22511,7 +22549,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1851</v>
       </c>
@@ -22534,7 +22572,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1852</v>
       </c>
@@ -22557,7 +22595,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1854</v>
       </c>
@@ -22580,7 +22618,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1855</v>
       </c>
@@ -22603,7 +22641,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1857</v>
       </c>
@@ -22626,7 +22664,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1858</v>
       </c>
@@ -22649,7 +22687,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1860</v>
       </c>
@@ -22672,7 +22710,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1861</v>
       </c>
@@ -22695,7 +22733,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1863</v>
       </c>
@@ -22718,7 +22756,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1864</v>
       </c>
@@ -22741,7 +22779,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1866</v>
       </c>
@@ -22764,7 +22802,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1867</v>
       </c>
@@ -22787,7 +22825,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1869</v>
       </c>
@@ -22810,7 +22848,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1870</v>
       </c>
@@ -22833,7 +22871,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1872</v>
       </c>
@@ -22856,7 +22894,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1873</v>
       </c>
@@ -22879,7 +22917,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1875</v>
       </c>
@@ -22902,7 +22940,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1876</v>
       </c>
@@ -22925,7 +22963,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1878</v>
       </c>
@@ -22948,7 +22986,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1879</v>
       </c>
@@ -22971,7 +23009,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1881</v>
       </c>
@@ -22994,7 +23032,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1882</v>
       </c>
@@ -23017,7 +23055,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1884</v>
       </c>
@@ -23040,7 +23078,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1885</v>
       </c>
@@ -23063,7 +23101,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1887</v>
       </c>
@@ -23086,7 +23124,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1888</v>
       </c>
@@ -23109,7 +23147,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1890</v>
       </c>
@@ -23132,7 +23170,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1891</v>
       </c>
@@ -23155,7 +23193,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1893</v>
       </c>
@@ -23178,7 +23216,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1894</v>
       </c>
@@ -23201,7 +23239,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1896</v>
       </c>
@@ -23224,7 +23262,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1897</v>
       </c>
@@ -23247,7 +23285,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1899</v>
       </c>
@@ -23270,7 +23308,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1900</v>
       </c>
@@ -23293,7 +23331,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1902</v>
       </c>
@@ -23316,7 +23354,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1903</v>
       </c>
@@ -23339,7 +23377,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1905</v>
       </c>
@@ -23362,7 +23400,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1906</v>
       </c>
@@ -23385,7 +23423,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1908</v>
       </c>
@@ -23408,7 +23446,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1909</v>
       </c>
@@ -23431,7 +23469,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1911</v>
       </c>
@@ -23454,7 +23492,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1912</v>
       </c>
@@ -23477,7 +23515,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1914</v>
       </c>
@@ -23500,7 +23538,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1915</v>
       </c>
@@ -23523,7 +23561,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1917</v>
       </c>
@@ -23546,7 +23584,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1918</v>
       </c>
@@ -23569,7 +23607,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1920</v>
       </c>
@@ -23592,7 +23630,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1921</v>
       </c>
@@ -23615,7 +23653,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1923</v>
       </c>
@@ -23638,7 +23676,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1924</v>
       </c>
@@ -23661,7 +23699,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1926</v>
       </c>
@@ -23684,7 +23722,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1927</v>
       </c>
@@ -23707,7 +23745,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1929</v>
       </c>
@@ -23730,7 +23768,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1930</v>
       </c>
@@ -23753,7 +23791,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1932</v>
       </c>
@@ -23776,7 +23814,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1933</v>
       </c>
@@ -23799,7 +23837,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1935</v>
       </c>
@@ -23822,7 +23860,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1936</v>
       </c>
@@ -23845,7 +23883,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1938</v>
       </c>
@@ -23868,7 +23906,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1939</v>
       </c>
@@ -23891,7 +23929,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1941</v>
       </c>
@@ -23914,7 +23952,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1942</v>
       </c>
@@ -23937,7 +23975,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1944</v>
       </c>
@@ -23960,7 +23998,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1945</v>
       </c>
@@ -23983,7 +24021,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1947</v>
       </c>
@@ -24006,7 +24044,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1948</v>
       </c>
@@ -24029,7 +24067,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1950</v>
       </c>
@@ -24052,7 +24090,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1951</v>
       </c>
@@ -24075,7 +24113,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1953</v>
       </c>
@@ -24098,7 +24136,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="310" spans="1:14">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1954</v>
       </c>
@@ -24121,7 +24159,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1956</v>
       </c>
@@ -24144,7 +24182,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1957</v>
       </c>
@@ -24167,7 +24205,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1959</v>
       </c>
@@ -24190,7 +24228,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="314" spans="1:14">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1960</v>
       </c>
@@ -24213,7 +24251,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1962</v>
       </c>
@@ -24236,7 +24274,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1963</v>
       </c>
@@ -24259,7 +24297,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="317" spans="1:14">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1965</v>
       </c>
@@ -24282,7 +24320,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="318" spans="1:14">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1966</v>
       </c>
@@ -24305,7 +24343,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1968</v>
       </c>
@@ -24328,7 +24366,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="320" spans="1:14">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1969</v>
       </c>
@@ -24351,7 +24389,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1971</v>
       </c>
@@ -24374,7 +24412,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1972</v>
       </c>
@@ -24397,7 +24435,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1974</v>
       </c>
@@ -24420,7 +24458,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="324" spans="1:14">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1975</v>
       </c>
@@ -24443,7 +24481,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1977</v>
       </c>
@@ -24466,7 +24504,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1978</v>
       </c>
@@ -24489,7 +24527,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1980</v>
       </c>
@@ -24512,7 +24550,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="328" spans="1:14">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1981</v>
       </c>
@@ -24535,7 +24573,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1983</v>
       </c>
@@ -24558,7 +24596,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="330" spans="1:14">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1984</v>
       </c>
@@ -24581,7 +24619,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1986</v>
       </c>
@@ -24604,7 +24642,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="332" spans="1:14">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1987</v>
       </c>
@@ -24627,7 +24665,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1989</v>
       </c>
@@ -24650,7 +24688,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="334" spans="1:14">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1990</v>
       </c>
@@ -24673,7 +24711,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1992</v>
       </c>
@@ -24696,7 +24734,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1993</v>
       </c>
@@ -24719,7 +24757,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1995</v>
       </c>
@@ -24742,7 +24780,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="338" spans="1:14">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1996</v>
       </c>
@@ -24765,7 +24803,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="339" spans="1:14">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1998</v>
       </c>
@@ -24788,7 +24826,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="340" spans="1:14">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1999</v>
       </c>
@@ -24811,7 +24849,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>2001</v>
       </c>
@@ -24834,7 +24872,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="342" spans="1:14">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>2002</v>
       </c>
@@ -24857,7 +24895,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="343" spans="1:14">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>2004</v>
       </c>
@@ -24880,7 +24918,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="344" spans="1:14">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>2005</v>
       </c>
@@ -24903,7 +24941,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="345" spans="1:14">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>2007</v>
       </c>
@@ -24926,7 +24964,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="346" spans="1:14">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>2008</v>
       </c>
@@ -24949,7 +24987,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="347" spans="1:14">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>2010</v>
       </c>
@@ -24972,7 +25010,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="348" spans="1:14">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>2011</v>
       </c>
@@ -24995,7 +25033,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="349" spans="1:14">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>2013</v>
       </c>
@@ -25018,7 +25056,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="350" spans="1:14">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>2014</v>
       </c>
@@ -25041,7 +25079,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="351" spans="1:14">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>2016</v>
       </c>
@@ -25064,7 +25102,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="352" spans="1:14">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>2017</v>
       </c>
@@ -25087,7 +25125,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>2019</v>
       </c>
@@ -25110,7 +25148,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>2020</v>
       </c>
@@ -25133,7 +25171,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>2022</v>
       </c>
@@ -25156,7 +25194,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="356" spans="1:14">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>2023</v>
       </c>
@@ -25179,7 +25217,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="357" spans="1:14">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>2025</v>
       </c>
@@ -25202,7 +25240,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="358" spans="1:14">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>2026</v>
       </c>
@@ -25225,7 +25263,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="359" spans="1:14">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>2028</v>
       </c>
@@ -25248,7 +25286,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="360" spans="1:14">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>2029</v>
       </c>
@@ -25271,7 +25309,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="361" spans="1:14">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>2031</v>
       </c>
@@ -25294,7 +25332,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="362" spans="1:14">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>2032</v>
       </c>
@@ -25317,7 +25355,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="363" spans="1:14">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>2034</v>
       </c>
@@ -25340,7 +25378,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="364" spans="1:14">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>2035</v>
       </c>
@@ -25363,7 +25401,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="365" spans="1:14">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>2037</v>
       </c>
@@ -25386,7 +25424,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="366" spans="1:14">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>2038</v>
       </c>
@@ -25409,7 +25447,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="367" spans="1:14">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>2040</v>
       </c>
@@ -25432,7 +25470,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="368" spans="1:14">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>2041</v>
       </c>
@@ -25455,7 +25493,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="369" spans="1:14">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>2043</v>
       </c>
@@ -25478,7 +25516,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="370" spans="1:14">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>2044</v>
       </c>
@@ -25501,7 +25539,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="371" spans="1:14">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>2046</v>
       </c>
@@ -25524,7 +25562,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="372" spans="1:14">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>2047</v>
       </c>
@@ -25547,7 +25585,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="373" spans="1:14">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>2049</v>
       </c>
@@ -25570,7 +25608,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="374" spans="1:14">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>2050</v>
       </c>
@@ -25593,7 +25631,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="375" spans="1:14">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>2052</v>
       </c>
@@ -25616,7 +25654,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="376" spans="1:14">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>2053</v>
       </c>
@@ -25639,7 +25677,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="377" spans="1:14">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>2055</v>
       </c>
@@ -25662,7 +25700,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="378" spans="1:14">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>2056</v>
       </c>
@@ -25685,7 +25723,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="379" spans="1:14">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>2058</v>
       </c>
@@ -25708,7 +25746,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="380" spans="1:14">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>2059</v>
       </c>
@@ -25731,7 +25769,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="381" spans="1:14">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>2061</v>
       </c>
@@ -25754,7 +25792,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="382" spans="1:14">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>2062</v>
       </c>
@@ -25777,7 +25815,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="383" spans="1:14">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>2064</v>
       </c>
@@ -25800,7 +25838,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="384" spans="1:14">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>2065</v>
       </c>
@@ -25823,7 +25861,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="385" spans="1:14">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>2067</v>
       </c>
@@ -25852,34 +25890,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="193.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="193.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1461</v>
       </c>
@@ -25935,7 +25975,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -25991,7 +26031,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -26041,7 +26081,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1492</v>
       </c>
@@ -26097,12 +26137,12 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1497</v>
       </c>
@@ -26112,8 +26152,11 @@
       <c r="G6" t="s">
         <v>2115</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="K6" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1517</v>
       </c>
@@ -26122,6 +26165,9 @@
       </c>
       <c r="G7" t="s">
         <v>2116</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2224</v>
       </c>
     </row>
   </sheetData>
